--- a/Documentation/Courbes.xlsx
+++ b/Documentation/Courbes.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TabuSearch" sheetId="1" r:id="rId1"/>
+    <sheet name="TabuSearchRestart" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>n</t>
   </si>
@@ -34,6 +35,12 @@
   </si>
   <si>
     <t>Number of errors</t>
+  </si>
+  <si>
+    <t>TimeExec</t>
+  </si>
+  <si>
+    <t>Errors</t>
   </si>
 </sst>
 </file>
@@ -89,8 +96,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,11 +380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2086164280"/>
-        <c:axId val="2086508520"/>
+        <c:axId val="2019604760"/>
+        <c:axId val="2019597224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086164280"/>
+        <c:axId val="2019604760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -403,7 +413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086508520"/>
+        <c:crossAx val="2019597224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -411,7 +421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086508520"/>
+        <c:axId val="2019597224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,7 +451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086164280"/>
+        <c:crossAx val="2019604760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,11 +738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081295416"/>
-        <c:axId val="2085661928"/>
+        <c:axId val="2019564040"/>
+        <c:axId val="2061836744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081295416"/>
+        <c:axId val="2019564040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085661928"/>
+        <c:crossAx val="2061836744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -769,7 +779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085661928"/>
+        <c:axId val="2061836744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +809,487 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081295416"/>
+        <c:crossAx val="2019564040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Execution time in terms of queen number</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TabuSearch</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TabuSearchRestart!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TabuSearchRestart!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>854.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4622.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13486.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2072964536"/>
+        <c:axId val="2072971864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2072964536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of queen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2072971864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2072971864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Execution time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2072964536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Number of errors in terms of queen number</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TabuSearch</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TabuSearchRestart!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TabuSearchRestart!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2073464936"/>
+        <c:axId val="2073472136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2073464936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of queen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2073472136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2073472136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number of errors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2073464936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -870,6 +1360,75 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Graphique 4"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>576900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>92900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>500700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1210,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1234,17 +1793,17 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
@@ -1470,4 +2029,216 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.09</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.34</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.42</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.51</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>3.48</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>6.96</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>26.76</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>122.1</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>854.25</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>75</v>
+      </c>
+      <c r="B13">
+        <v>4622.72</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>13486.82</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Documentation/Courbes.xlsx
+++ b/Documentation/Courbes.xlsx
@@ -2036,7 +2036,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
